--- a/书单.xlsx
+++ b/书单.xlsx
@@ -16,9 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>微服务实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域驱动设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业集成模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -383,6 +391,16 @@
       </c>
       <c r="B1" s="1">
         <v>43466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>微服务实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>企业集成模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代码的艺术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -403,6 +407,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -378,36 +378,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43466</v>
+        <v>300</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
